--- a/Assets/Resource/Table/AchieveTable.xlsx
+++ b/Assets/Resource/Table/AchieveTable.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>成就描述</t>
   </si>
@@ -56,322 +56,328 @@
     <t>解锁数量4</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>AchieveDatil</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Achieve1</t>
+  </si>
+  <si>
+    <t>AchieveCount1</t>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>UnlockType1</t>
+  </si>
+  <si>
+    <t>UnlockCount1</t>
+  </si>
+  <si>
+    <t>UnlockType2</t>
+  </si>
+  <si>
+    <t>UnlockCount2</t>
+  </si>
+  <si>
+    <t>UnlockType3</t>
+  </si>
+  <si>
+    <t>UnlockCount3</t>
+  </si>
+  <si>
+    <t>UnlockType4</t>
+  </si>
+  <si>
+    <t>UnlockCount4</t>
+  </si>
+  <si>
+    <t>拥有4块黄土地，解锁农贸市场</t>
+  </si>
+  <si>
+    <t>[210]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[""]</t>
+  </si>
+  <si>
+    <t>拥有4块红土地，解锁鱼塘</t>
+  </si>
+  <si>
+    <t>[505]</t>
+  </si>
+  <si>
+    <t>["UImage/Publicity column/icon_js_yt"]</t>
+  </si>
+  <si>
+    <t>拥有4个普通钓鱼台，解锁森林</t>
+  </si>
+  <si>
+    <t>[509]</t>
+  </si>
+  <si>
+    <t>["UImage/Publicity column/icon_js_sl"]</t>
+  </si>
+  <si>
+    <t>拥有2块森林，解锁矿洞</t>
+  </si>
+  <si>
+    <t>[513]</t>
+  </si>
+  <si>
+    <t>["UImage/Publicity column/icon_js_kd"]</t>
+  </si>
+  <si>
+    <t>种出水稻，玉米，苹果</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[100]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed1"]</t>
+  </si>
+  <si>
+    <t>种出草莓，南瓜，猕猴桃</t>
+  </si>
+  <si>
+    <t>种出榴莲，人参</t>
+  </si>
+  <si>
+    <t>钓到鲫鱼，皮皮虾，帝王蟹</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed2"]</t>
+  </si>
+  <si>
+    <t>钓到河豚，海马，象拔蚌</t>
+  </si>
+  <si>
+    <t>伐到乌木，金丝楠木</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed3"]</t>
+  </si>
+  <si>
+    <t>伐到紫檀木，黄花梨</t>
+  </si>
+  <si>
+    <t>[200]</t>
+  </si>
+  <si>
+    <t>挖出水晶，和田玉，钻石</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed4"]</t>
+  </si>
+  <si>
+    <t>收获6000个玉米</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[100,100]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed2","Texture/seed_icon/icon_seed3"]</t>
+  </si>
+  <si>
+    <t>收获5000个苹果</t>
+  </si>
+  <si>
+    <t>收获5000个草莓</t>
+  </si>
+  <si>
+    <t>收获5000个南瓜</t>
+  </si>
+  <si>
+    <t>[200,100]</t>
+  </si>
+  <si>
+    <t>收获5000个猕猴桃</t>
+  </si>
+  <si>
+    <t>收获4000个榴莲</t>
+  </si>
+  <si>
+    <t>[300,100]</t>
+  </si>
+  <si>
+    <t>收获4000个人参</t>
+  </si>
+  <si>
+    <t>收获10000只皮皮虾</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed3","Texture/seed_icon/icon_seed4"]</t>
+  </si>
+  <si>
+    <t>收获8000只帝王蟹</t>
+  </si>
+  <si>
+    <t>收获5000只河豚</t>
+  </si>
+  <si>
+    <t>收获4000只海马</t>
+  </si>
+  <si>
+    <t>[200,200]</t>
+  </si>
+  <si>
+    <t>收获3000只象拔蚌</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed4","Texture/item_Icon/dogfood"]</t>
+  </si>
+  <si>
+    <t>伐到5000棵金丝楠木</t>
+  </si>
+  <si>
+    <t>[4,202]</t>
+  </si>
+  <si>
+    <t>[100,30]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed4","Texture/item_Icon/icon_dogfood"]</t>
+  </si>
+  <si>
+    <t>收获3000棵紫檀木</t>
+  </si>
+  <si>
+    <t>收获2000棵黄花梨</t>
+  </si>
+  <si>
+    <t>[100,40]</t>
+  </si>
+  <si>
+    <t>挖到2000个和田玉</t>
+  </si>
+  <si>
+    <t>[202]</t>
+  </si>
+  <si>
+    <t>["Texture/item_Icon/icon_dogfood"]</t>
+  </si>
+  <si>
+    <t>收获1000个钻石矿</t>
+  </si>
+  <si>
+    <t>拥有10000个金币</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>["Texture/seed_icon/icon_seed1","Texture/seed_icon/icon_seed2"]</t>
+  </si>
+  <si>
+    <t>拥有50000个金币</t>
+  </si>
+  <si>
+    <t>拥有80000个金币</t>
+  </si>
+  <si>
+    <t>拥有100000个金币</t>
+  </si>
+  <si>
+    <t>拥有200000个钻石</t>
+  </si>
+  <si>
+    <t>[300,300]</t>
+  </si>
+  <si>
+    <t>在农贸市场赚取50000金币</t>
+  </si>
+  <si>
+    <t>在农贸市场赚取100000金币</t>
+  </si>
+  <si>
+    <t>在农贸市场赚取500000金币</t>
+  </si>
+  <si>
+    <t>在农贸市场进行过100次交易</t>
+  </si>
+  <si>
+    <t>在农贸市场进行过1000次交易</t>
+  </si>
+  <si>
+    <t>拥有3只狗</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>拥有6只狗</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>拥有10只狗</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>解锁庄园里的4座祈福神像</t>
+  </si>
+  <si>
+    <t>[200,300]</t>
+  </si>
+  <si>
+    <t>拥有12块黄土地，解锁农地祈福神像</t>
+  </si>
+  <si>
+    <t>[209]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>拥有9个简单钓鱼台，解锁鱼塘祈福神像</t>
+  </si>
+  <si>
+    <t>[211]</t>
+  </si>
+  <si>
+    <t>拥有6块树林，解锁森林祈福神像</t>
+  </si>
+  <si>
+    <t>[212]</t>
+  </si>
+  <si>
+    <t>拥有3块水晶矿洞，解锁矿洞祈福神像</t>
+  </si>
+  <si>
+    <t>[213]</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>AchieveDatil</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Achieve1</t>
-  </si>
-  <si>
-    <t>AchieveCount1</t>
-  </si>
-  <si>
-    <t>IconPath</t>
-  </si>
-  <si>
-    <t>UnlockType1</t>
-  </si>
-  <si>
-    <t>UnlockCount1</t>
-  </si>
-  <si>
-    <t>UnlockType2</t>
-  </si>
-  <si>
-    <t>UnlockCount2</t>
-  </si>
-  <si>
-    <t>UnlockType3</t>
-  </si>
-  <si>
-    <t>UnlockCount3</t>
-  </si>
-  <si>
-    <t>UnlockType4</t>
-  </si>
-  <si>
-    <t>UnlockCount4</t>
-  </si>
-  <si>
-    <t>拥有4块黄土地，解锁农贸市场</t>
-  </si>
-  <si>
-    <t>[210]</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>拥有4块红土地，解锁鱼塘</t>
-  </si>
-  <si>
-    <t>[505]</t>
-  </si>
-  <si>
-    <t>["UImage/Publicity column/icon_js_yt"]</t>
-  </si>
-  <si>
-    <t>拥有4个普通钓鱼台，解锁森林</t>
-  </si>
-  <si>
-    <t>[509]</t>
-  </si>
-  <si>
-    <t>["UImage/Publicity column/icon_js_sl"]</t>
-  </si>
-  <si>
-    <t>拥有2块森林，解锁矿洞</t>
-  </si>
-  <si>
-    <t>[513]</t>
-  </si>
-  <si>
-    <t>["UImage/Publicity column/icon_js_kd"]</t>
-  </si>
-  <si>
-    <t>种出水稻，玉米，苹果</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[100]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed1"]</t>
-  </si>
-  <si>
-    <t>种出草莓，南瓜，猕猴桃</t>
-  </si>
-  <si>
-    <t>种出榴莲，人参</t>
-  </si>
-  <si>
-    <t>钓到鲫鱼，皮皮虾，帝王蟹</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed2"]</t>
-  </si>
-  <si>
-    <t>钓到河豚，海马，象拔蚌</t>
-  </si>
-  <si>
-    <t>伐到乌木，金丝楠木</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed3"]</t>
-  </si>
-  <si>
-    <t>伐到紫檀木，黄花梨</t>
-  </si>
-  <si>
-    <t>[200]</t>
-  </si>
-  <si>
-    <t>挖出水晶，和田玉，钻石</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed4"]</t>
-  </si>
-  <si>
-    <t>收获6000个玉米</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
-    <t>[100,100]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed2","Texture/seed_icon/icon_seed3"]</t>
-  </si>
-  <si>
-    <t>收获5000个苹果</t>
-  </si>
-  <si>
-    <t>收获5000个草莓</t>
-  </si>
-  <si>
-    <t>收获5000个南瓜</t>
-  </si>
-  <si>
-    <t>[200,100]</t>
-  </si>
-  <si>
-    <t>收获5000个猕猴桃</t>
-  </si>
-  <si>
-    <t>收获4000个榴莲</t>
-  </si>
-  <si>
-    <t>[300,100]</t>
-  </si>
-  <si>
-    <t>收获4000个人参</t>
-  </si>
-  <si>
-    <t>收获10000只皮皮虾</t>
-  </si>
-  <si>
-    <t>[3,4]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed3","Texture/seed_icon/icon_seed4"]</t>
-  </si>
-  <si>
-    <t>收获8000只帝王蟹</t>
-  </si>
-  <si>
-    <t>收获5000只河豚</t>
-  </si>
-  <si>
-    <t>收获4000只海马</t>
-  </si>
-  <si>
-    <t>[200,200]</t>
-  </si>
-  <si>
-    <t>收获3000只象拔蚌</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed4","Texture/item_Icon/dogfood"]</t>
-  </si>
-  <si>
-    <t>伐到5000棵金丝楠木</t>
-  </si>
-  <si>
-    <t>[4,202]</t>
-  </si>
-  <si>
-    <t>[100,30]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed4","Texture/item_Icon/icon_dogfood"]</t>
-  </si>
-  <si>
-    <t>收获3000棵紫檀木</t>
-  </si>
-  <si>
-    <t>收获2000棵黄花梨</t>
-  </si>
-  <si>
-    <t>[100,40]</t>
-  </si>
-  <si>
-    <t>挖到2000个和田玉</t>
-  </si>
-  <si>
-    <t>[202]</t>
-  </si>
-  <si>
-    <t>["Texture/item_Icon/icon_dogfood"]</t>
-  </si>
-  <si>
-    <t>收获1000个钻石矿</t>
-  </si>
-  <si>
-    <t>拥有10000个金币</t>
-  </si>
-  <si>
-    <t>[1,2]</t>
-  </si>
-  <si>
-    <t>["Texture/seed_icon/icon_seed1","Texture/seed_icon/icon_seed2"]</t>
-  </si>
-  <si>
-    <t>拥有50000个金币</t>
-  </si>
-  <si>
-    <t>拥有80000个金币</t>
-  </si>
-  <si>
-    <t>拥有100000个金币</t>
-  </si>
-  <si>
-    <t>拥有200000个钻石</t>
-  </si>
-  <si>
-    <t>[300,300]</t>
-  </si>
-  <si>
-    <t>在农贸市场赚取50000金币</t>
-  </si>
-  <si>
-    <t>在农贸市场赚取100000金币</t>
-  </si>
-  <si>
-    <t>在农贸市场赚取500000金币</t>
-  </si>
-  <si>
-    <t>在农贸市场进行过100次交易</t>
-  </si>
-  <si>
-    <t>在农贸市场进行过1000次交易</t>
-  </si>
-  <si>
-    <t>拥有3只狗</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>拥有6只狗</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>拥有10只狗</t>
-  </si>
-  <si>
-    <t>[40]</t>
-  </si>
-  <si>
-    <t>解锁庄园里的4座祈福神像</t>
-  </si>
-  <si>
-    <t>[200,300]</t>
-  </si>
-  <si>
-    <t>拥有12块黄土地，解锁农地祈福神像</t>
-  </si>
-  <si>
-    <t>[209]</t>
-  </si>
-  <si>
-    <t>拥有9个简单钓鱼台，解锁鱼塘祈福神像</t>
-  </si>
-  <si>
-    <t>[211]</t>
-  </si>
-  <si>
-    <t>拥有6块树林，解锁森林祈福神像</t>
-  </si>
-  <si>
-    <t>[212]</t>
-  </si>
-  <si>
-    <t>拥有3块水晶矿洞，解锁矿洞祈福神像</t>
-  </si>
-  <si>
-    <t>[213]</t>
   </si>
   <si>
     <t>条件</t>
@@ -581,11 +587,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,13 +607,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -617,12 +616,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,6 +659,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -668,20 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -690,23 +712,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,22 +736,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -743,9 +743,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,6 +789,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -802,7 +885,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,85 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,67 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,15 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1058,11 +1048,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,151 +1084,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1633,7 +1632,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -3650,7 +3649,7 @@
         <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G46" s="1">
         <v>502</v>
@@ -3682,19 +3681,19 @@
         <v>644</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G47" s="1">
         <v>506</v>
@@ -3726,19 +3725,19 @@
         <v>645</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G48" s="1">
         <v>510</v>
@@ -3770,19 +3769,19 @@
         <v>646</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="G49" s="1">
         <v>514</v>
@@ -3837,20 +3836,20 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:8">
@@ -3858,19 +3857,19 @@
         <v>601</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
@@ -3878,20 +3877,20 @@
         <v>602</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4"/>
       <c r="F3" s="1">
         <v>501</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:13">
@@ -3899,10 +3898,10 @@
         <v>603</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3910,10 +3909,10 @@
         <v>502</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3926,10 +3925,10 @@
         <v>604</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3937,10 +3936,10 @@
         <v>503</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3953,10 +3952,10 @@
         <v>605</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3964,10 +3963,10 @@
         <v>504</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3980,10 +3979,10 @@
         <v>606</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3991,10 +3990,10 @@
         <v>505</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -4007,10 +4006,10 @@
         <v>607</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -4018,10 +4017,10 @@
         <v>506</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="4"/>
@@ -4034,10 +4033,10 @@
         <v>608</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -4045,10 +4044,10 @@
         <v>507</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="4"/>
@@ -4061,10 +4060,10 @@
         <v>609</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4072,10 +4071,10 @@
         <v>508</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4088,10 +4087,10 @@
         <v>610</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4099,10 +4098,10 @@
         <v>509</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -4115,10 +4114,10 @@
         <v>611</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -4126,10 +4125,10 @@
         <v>510</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4142,10 +4141,10 @@
         <v>612</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4153,10 +4152,10 @@
         <v>511</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4169,10 +4168,10 @@
         <v>613</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4180,10 +4179,10 @@
         <v>512</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -4196,20 +4195,20 @@
         <v>614</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1">
         <v>513</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -4222,20 +4221,20 @@
         <v>615</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2">
         <v>514</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -4248,20 +4247,20 @@
         <v>616</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1">
         <v>515</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -4274,20 +4273,20 @@
         <v>617</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2">
         <v>516</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4300,19 +4299,19 @@
         <v>618</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" s="1">
         <v>399</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:8">
@@ -4320,19 +4319,19 @@
         <v>619</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1">
         <v>1000</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:3">
@@ -4340,10 +4339,10 @@
         <v>620</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:8">
@@ -4351,13 +4350,13 @@
         <v>621</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -4367,10 +4366,10 @@
         <v>622</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:3">
@@ -4378,10 +4377,10 @@
         <v>623</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:3">
@@ -4389,10 +4388,10 @@
         <v>624</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:3">
@@ -4400,10 +4399,10 @@
         <v>625</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:3">
@@ -4411,10 +4410,10 @@
         <v>626</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:3">
@@ -4422,10 +4421,10 @@
         <v>627</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:3">
@@ -4433,10 +4432,10 @@
         <v>628</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
